--- a/0-Docs/Readmemd/datatable1.xlsx
+++ b/0-Docs/Readmemd/datatable1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/10-Pierlam/Lexerow/Dev/Lexerow/0-Docs/Readmemd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9C23AC-D71F-4100-A34F-1CE291FBEA28}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27231BF4-C18F-4CDF-9799-8A4DD3B38F92}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3600" windowWidth="21540" windowHeight="12480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="3600" windowWidth="21540" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Value</t>
   </si>
@@ -71,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +81,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,11 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,131 +397,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>89</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
         <v>29</v>
       </c>
     </row>
@@ -541,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D6ACEE-B127-4555-B14A-C5981E8E4BEE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +506,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -583,7 +522,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -607,7 +546,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
